--- a/Solutions/solution_models_HP98.xlsx
+++ b/Solutions/solution_models_HP98.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_02_06\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_08_30\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7927E0-8305-4C49-B142-2279D9CB0103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7415A-9DEE-42AF-AEA1-E79F63CCBB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41730" yWindow="3840" windowWidth="28470" windowHeight="14385" firstSheet="10" activeTab="11" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthopyroxene" sheetId="1" r:id="rId1"/>
@@ -24,28 +24,31 @@
     <sheet name="Fluid-CO2-H2O" sheetId="20" r:id="rId9"/>
     <sheet name="Fluid-NaCl-H2O" sheetId="44" r:id="rId10"/>
     <sheet name="Fluid-NaCl-KCl-H2O" sheetId="45" r:id="rId11"/>
-    <sheet name="aqFluid-NaCl-KCl-H2O" sheetId="46" r:id="rId12"/>
-    <sheet name="Melt" sheetId="5" r:id="rId13"/>
-    <sheet name="Garnet" sheetId="3" r:id="rId14"/>
-    <sheet name="Clinopyroxene" sheetId="6" r:id="rId15"/>
-    <sheet name="Spinel" sheetId="4" r:id="rId16"/>
-    <sheet name="Chlorite" sheetId="7" r:id="rId17"/>
-    <sheet name="Amphibole" sheetId="16" r:id="rId18"/>
-    <sheet name="Feldspar(C1)" sheetId="17" r:id="rId19"/>
-    <sheet name="Muscovite" sheetId="8" r:id="rId20"/>
-    <sheet name="Biotite" sheetId="9" r:id="rId21"/>
-    <sheet name="Staurolite" sheetId="10" r:id="rId22"/>
-    <sheet name="Chloritoid" sheetId="11" r:id="rId23"/>
-    <sheet name="Cordierite" sheetId="12" r:id="rId24"/>
-    <sheet name="Talc" sheetId="13" r:id="rId25"/>
-    <sheet name="Brucite" sheetId="15" r:id="rId26"/>
-    <sheet name="Antigorite" sheetId="14" r:id="rId27"/>
-    <sheet name="Magnesite" sheetId="18" r:id="rId28"/>
-    <sheet name="Dolomite" sheetId="21" r:id="rId29"/>
-    <sheet name="Melt(W07)" sheetId="19" r:id="rId30"/>
-    <sheet name="Epidote" sheetId="22" r:id="rId31"/>
-    <sheet name="Ilmenite" sheetId="23" r:id="rId32"/>
-    <sheet name="Carbonate" sheetId="43" r:id="rId33"/>
+    <sheet name="Fluid(F)" sheetId="49" r:id="rId12"/>
+    <sheet name="aqFluid-NaCl-KCl-H2O" sheetId="46" r:id="rId13"/>
+    <sheet name="Melt" sheetId="5" r:id="rId14"/>
+    <sheet name="Salt(L)" sheetId="48" r:id="rId15"/>
+    <sheet name="Salt" sheetId="47" r:id="rId16"/>
+    <sheet name="Garnet" sheetId="3" r:id="rId17"/>
+    <sheet name="Clinopyroxene" sheetId="6" r:id="rId18"/>
+    <sheet name="Spinel" sheetId="4" r:id="rId19"/>
+    <sheet name="Chlorite" sheetId="7" r:id="rId20"/>
+    <sheet name="Amphibole" sheetId="16" r:id="rId21"/>
+    <sheet name="Feldspar(C1)" sheetId="17" r:id="rId22"/>
+    <sheet name="Muscovite" sheetId="8" r:id="rId23"/>
+    <sheet name="Biotite" sheetId="9" r:id="rId24"/>
+    <sheet name="Staurolite" sheetId="10" r:id="rId25"/>
+    <sheet name="Chloritoid" sheetId="11" r:id="rId26"/>
+    <sheet name="Cordierite" sheetId="12" r:id="rId27"/>
+    <sheet name="Talc" sheetId="13" r:id="rId28"/>
+    <sheet name="Brucite" sheetId="15" r:id="rId29"/>
+    <sheet name="Antigorite" sheetId="14" r:id="rId30"/>
+    <sheet name="Magnesite" sheetId="18" r:id="rId31"/>
+    <sheet name="Dolomite" sheetId="21" r:id="rId32"/>
+    <sheet name="Melt(W07)" sheetId="19" r:id="rId33"/>
+    <sheet name="Epidote" sheetId="22" r:id="rId34"/>
+    <sheet name="Ilmenite" sheetId="23" r:id="rId35"/>
+    <sheet name="Carbonate" sheetId="43" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="241">
   <si>
     <t>M1</t>
   </si>
@@ -765,6 +768,30 @@
   </si>
   <si>
     <t>NaCl,aq,supcrt</t>
+  </si>
+  <si>
+    <t>hlt,tc-ds55</t>
+  </si>
+  <si>
+    <t>syv,tc-ds55</t>
+  </si>
+  <si>
+    <t>HF,aq,supcrt</t>
+  </si>
+  <si>
+    <t>HCl,aq,supcrt</t>
+  </si>
+  <si>
+    <t>F-,supcrt</t>
+  </si>
+  <si>
+    <t>Cl-,supcrt</t>
+  </si>
+  <si>
+    <t>K+,supcrt</t>
+  </si>
+  <si>
+    <t>H2O,tc-ds633</t>
   </si>
 </sst>
 </file>
@@ -1619,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10A6814-0771-42A0-ADD9-1E48210B747A}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,16 +1805,589 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E257552C-6522-412B-AF95-E7CF0694A2DE}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="G20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="J20">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3FA1E-0660-4E6A-9F40-CA62A83FBC49}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1949,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7D3560-73FF-4245-80DE-49DB35A6A3BB}">
   <dimension ref="A1:M39"/>
   <sheetViews>
@@ -2500,12 +3100,328 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89283236-4676-4076-9203-52B2B3A69DDB}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCDEFFC-BB9F-4104-B7A7-28EE9BF9EA78}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="C13">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33B391C-3BF6-4AAF-B42F-3471336276EC}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A36" sqref="A36:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,7 +3987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8622EBC-6B59-41C1-A0B5-B72AB8142590}">
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -4046,7 +4962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925AD246-7441-4532-9250-4463A90017EB}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -4193,1549 +5109,6 @@
         <v>700</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EC53B8-E4AC-4382-998D-57A5668183D5}">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="I15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="J15">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D19" s="2">
-        <v>14500</v>
-      </c>
-      <c r="E19" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="2">
-        <v>18000</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E20" s="2">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2">
-        <v>14500</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2">
-        <v>20000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>18000</v>
-      </c>
-      <c r="D22" s="2">
-        <v>13500</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161DBCB5-5176-4DC9-88DC-4D37E7E0DE9B}">
-  <dimension ref="A1:L29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="I16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="J16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="K16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="L16">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-38500</v>
-      </c>
-      <c r="E20" s="2">
-        <v>-1900</v>
-      </c>
-      <c r="F20" s="2">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E21" s="2">
-        <v>39300</v>
-      </c>
-      <c r="F21" s="2">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="2">
-        <v>-38500</v>
-      </c>
-      <c r="C22" s="2">
-        <v>25000</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>12500</v>
-      </c>
-      <c r="F22" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="2">
-        <v>-1900</v>
-      </c>
-      <c r="C23" s="2">
-        <v>39300</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12500</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2">
-        <v>33000</v>
-      </c>
-      <c r="C24" s="2">
-        <v>65000</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>1.7</v>
-      </c>
-      <c r="C27">
-        <v>0.8</v>
-      </c>
-      <c r="D27">
-        <v>1.5</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5DB00F-1DA4-4360-9CC7-4924D3BDF29C}">
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3100</v>
-      </c>
-      <c r="D18" s="2">
-        <v>25100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3100</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2">
-        <v>25100</v>
-      </c>
-      <c r="C20" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>-10.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25">
-        <v>-10.8</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2">
-        <v>343</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
         <v>0</v>
       </c>
     </row>
@@ -6151,6 +5524,1549 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EC53B8-E4AC-4382-998D-57A5668183D5}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14500</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2">
+        <v>14500</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>13500</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161DBCB5-5176-4DC9-88DC-4D37E7E0DE9B}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-38500</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-1900</v>
+      </c>
+      <c r="F20" s="2">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>39300</v>
+      </c>
+      <c r="F21" s="2">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-38500</v>
+      </c>
+      <c r="C22" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>12500</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-1900</v>
+      </c>
+      <c r="C23" s="2">
+        <v>39300</v>
+      </c>
+      <c r="D23" s="2">
+        <v>12500</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2">
+        <v>33000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>65000</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1.7</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27">
+        <v>1.5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5DB00F-1DA4-4360-9CC7-4924D3BDF29C}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3100</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3100</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2">
+        <v>25100</v>
+      </c>
+      <c r="C20" s="2">
+        <v>40000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>-10.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>-10.8</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2">
+        <v>343</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D256944-9887-4D01-B486-8A5A88556D98}">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -6828,7 +7744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107EBBF7-8126-4698-9154-55A6781978E0}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -7538,7 +8454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D2FF73-BF3D-4FFA-991C-ADB00E1AEB98}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7760,7 +8676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43D4CC9-B60B-4FFB-8E97-63A544C61A1B}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7979,7 +8895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62433996-6A78-4C42-B701-F94A76CD98CF}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -8222,7 +9138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5EA3B8-30F6-4ECC-A8AF-020A464756E5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -8528,7 +9444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1619535-04D6-4815-919C-E25105CD6D69}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -8642,620 +9558,6 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEF32A7-DCB4-44DF-8E85-765EC52F830F}">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10">
-        <v>44</v>
-      </c>
-      <c r="C10">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="H14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DDF854-756B-42A7-A515-A9979CF28555}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2BDD3-56BF-46F4-A969-6F5E44BC336D}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C18">
         <v>0</v>
       </c>
     </row>
@@ -9410,6 +9712,620 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEF32A7-DCB4-44DF-8E85-765EC52F830F}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DDF854-756B-42A7-A515-A9979CF28555}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2BDD3-56BF-46F4-A969-6F5E44BC336D}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29BE789-FCEE-4419-8EA0-B9924A6B0C51}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -10507,7 +11423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA318424-9D96-4EC8-B79D-40733A02CEEE}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -10758,7 +11674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9EB150-1CC6-4D02-B1FA-7952EA79D5E4}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11123,7 +12039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19F705E-B507-46E8-8605-FAA28F99A6BF}">
   <dimension ref="A1:J36"/>
   <sheetViews>

--- a/Solutions/solution_models_HP98.xlsx
+++ b/Solutions/solution_models_HP98.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_08_30\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\Github\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD7415A-9DEE-42AF-AEA1-E79F63CCBB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156D3A3-B77A-4314-A1B7-7AB90EA28B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="14" activeTab="23" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthopyroxene" sheetId="1" r:id="rId1"/>
@@ -1822,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E257552C-6522-412B-AF95-E7CF0694A2DE}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2301,39 +2301,39 @@
         <v>120</v>
       </c>
       <c r="B20">
-        <f>1/90</f>
+        <f t="shared" ref="B20:J20" si="0">1/90</f>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="C20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="D20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="E20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="F20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="G20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="H20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="I20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="J20">
-        <f>1/90</f>
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
@@ -3991,8 +3991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8622EBC-6B59-41C1-A0B5-B72AB8142590}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7748,8 +7748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107EBBF7-8126-4698-9154-55A6781978E0}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8147,7 +8147,7 @@
         <v>119</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>

--- a/Solutions/solution_models_HP98.xlsx
+++ b/Solutions/solution_models_HP98.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Thermolab-main\v_24_04_10\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\Github\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B29198-5157-413A-B324-779F792D37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8192A82D-8F50-46C3-B872-A7E16ABA3D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="6520" windowWidth="17470" windowHeight="14280" firstSheet="9" activeTab="13" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="16" activeTab="28" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthopyroxene" sheetId="1" r:id="rId1"/>
@@ -943,9 +943,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -983,7 +983,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1089,7 +1089,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1231,7 +1231,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1245,16 +1245,16 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1395,7 +1395,7 @@
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -1418,12 +1418,12 @@
       <c r="H11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -1613,9 +1613,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -1737,9 +1737,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -1890,11 +1890,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
@@ -1911,9 +1911,9 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1922,11 +1922,11 @@
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2002,11 +2002,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>243</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>256</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>245</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>244</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>240</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>258</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>235</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2437,7 +2437,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2487,7 +2487,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -2659,12 +2659,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>232</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -3060,12 +3060,12 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -3202,11 +3202,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
@@ -3220,16 +3220,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF039772-33D1-4A90-B16C-EBCBA3F94116}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>261</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>263</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -3560,12 +3560,12 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3689,11 +3689,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
@@ -3711,12 +3711,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>264</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>263</v>
       </c>
@@ -4078,7 +4078,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4112,12 +4112,12 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -4254,11 +4254,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
@@ -4276,12 +4276,12 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>240</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>241</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>242</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>244</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>245</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>247</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -4908,12 +4908,12 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -5089,11 +5089,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
@@ -5111,9 +5111,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -5275,12 +5275,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5322,12 +5322,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5468,7 +5468,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -5487,11 +5487,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>87</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>88</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -5828,9 +5828,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>228</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -5981,11 +5981,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
@@ -6002,12 +6002,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -6101,11 +6101,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -6137,7 +6137,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -6153,7 +6153,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -6167,11 +6167,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -6408,9 +6408,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>233</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>234</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -6519,19 +6519,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6550,14 +6550,14 @@
       <selection activeCell="A36" sqref="A36:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>134</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>137</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -7121,12 +7121,12 @@
       <selection sqref="A1:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>140</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>141</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7517,7 +7517,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>24650</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>24550</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -7939,7 +7939,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -7948,7 +7948,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7957,7 +7957,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -7966,7 +7966,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -7975,7 +7975,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -7984,7 +7984,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -7993,7 +7993,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -8002,7 +8002,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8011,7 +8011,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8020,7 +8020,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8029,7 +8029,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8038,7 +8038,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8047,7 +8047,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8056,7 +8056,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -8065,7 +8065,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -8074,7 +8074,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8096,9 +8096,9 @@
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -8218,9 +8218,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -8373,9 +8373,9 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -8480,7 +8480,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -8834,12 +8834,12 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -9126,7 +9126,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -9529,9 +9529,9 @@
       <selection activeCell="A10" sqref="A10:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>158</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>159</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -9916,12 +9916,12 @@
       <selection activeCell="A36" sqref="A36:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9987,11 +9987,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -10022,7 +10022,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -10053,7 +10053,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -10084,7 +10084,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -10590,13 +10590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107EBBF7-8126-4698-9154-55A6781978E0}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>167</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>169</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -10984,12 +10984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>119</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -11098,10 +11098,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -11195,7 +11195,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -11267,28 +11267,28 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H28" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
     </row>
   </sheetData>
@@ -11304,12 +11304,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -11378,12 +11378,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -11428,11 +11428,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -11449,12 +11449,12 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -11671,9 +11671,9 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>174</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -11890,9 +11890,9 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -12133,12 +12133,12 @@
       <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12198,10 +12198,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -12229,7 +12229,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -12284,7 +12284,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12293,7 +12293,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -12319,10 +12319,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -12439,9 +12439,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -12561,9 +12561,9 @@
       <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12623,10 +12623,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>186</v>
       </c>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>187</v>
       </c>
@@ -12680,7 +12680,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -12707,7 +12707,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -12716,7 +12716,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -12742,10 +12742,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -12862,12 +12862,12 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>189</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>190</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -13020,9 +13020,9 @@
       <selection activeCell="A11" sqref="A11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -13175,13 +13175,13 @@
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -13259,8 +13259,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>193</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>194</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>196</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -13552,7 +13552,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>123</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>120</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -14027,7 +14027,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>-450</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>-850</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -14172,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>87</v>
       </c>
@@ -14230,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -14273,9 +14273,9 @@
       <selection activeCell="A12" sqref="A12:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14317,7 +14317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -14419,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -14524,12 +14524,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -14637,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -14720,7 +14720,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -14768,7 +14768,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -14791,11 +14791,11 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
@@ -14812,9 +14812,9 @@
       <selection activeCell="M29" sqref="M28:M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>202</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -15136,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -15177,9 +15177,9 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>221</v>
       </c>
@@ -15283,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>222</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>189</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>12730</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>73650</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -15691,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>224</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>225</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -15831,7 +15831,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -15904,12 +15904,12 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -16037,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -16060,7 +16060,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -16083,12 +16083,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -16173,11 +16173,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -16194,12 +16194,12 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -16207,7 +16207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -16280,7 +16280,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -16297,12 +16297,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -16359,11 +16359,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -16380,12 +16380,12 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -16536,7 +16536,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -16559,12 +16559,12 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>119</v>
       </c>
@@ -16604,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>133</v>
       </c>
@@ -16649,11 +16649,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -16670,12 +16670,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>209</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -16784,7 +16784,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -16818,7 +16818,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -16835,11 +16835,11 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
@@ -16856,9 +16856,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -16910,7 +16910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -16976,7 +16976,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>81</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
